--- a/2_code/2_sentiment_analysis/1_basic_unigram_dict/dicts/list-sources.xlsx
+++ b/2_code/2_sentiment_analysis/1_basic_unigram_dict/dicts/list-sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wimme\Documents\1_uni\1_master\consulting\projects\consulting\2_code\2_sentiment_analysis\1_basic_unigram_dict\dicts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8869FADE-E607-417F-83DE-F2B936FCB25A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ADC914-306A-4857-A0B6-83722A45E6BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A97FC25-B009-4150-BADE-91670A5B071B}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>dictionary</t>
   </si>
   <si>
-    <t>dissertation (über paul thurner)</t>
-  </si>
-  <si>
     <t>SentiWS*</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>https://github.com/stopwords-iso/stopwords-de</t>
+  </si>
+  <si>
+    <t>http://www.ulliwaltinger.de/sentiment/</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,40 +459,40 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/2_code/2_sentiment_analysis/1_basic_unigram_dict/dicts/list-sources.xlsx
+++ b/2_code/2_sentiment_analysis/1_basic_unigram_dict/dicts/list-sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wimme\Documents\1_uni\1_master\consulting\projects\consulting\2_code\2_sentiment_analysis\1_basic_unigram_dict\dicts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ADC914-306A-4857-A0B6-83722A45E6BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E21C3A-E69D-45A6-98C8-B7F5BFF895DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A97FC25-B009-4150-BADE-91670A5B071B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>type</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>http://www.ulliwaltinger.de/sentiment/</t>
+  </si>
+  <si>
+    <t>https://dataverse.harvard.edu/dataset.xhtml?persistentId=doi:10.7910/DVN/BKBXWD</t>
+  </si>
+  <si>
+    <t>rauh_*</t>
   </si>
 </sst>
 </file>
@@ -427,17 +433,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34BDCA7-D9EE-4F93-8502-106E608DCE56}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -495,6 +501,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
